--- a/biology/Botanique/Malodae/Malodae.xlsx
+++ b/biology/Botanique/Malodae/Malodae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrodae
 Les Malodae, syn. Pyrodae, sont une super-tribu de plantes à fleurs de la sous-famille des Amygdaloideae (famille des Rosaceae).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de la super-tribu sont des herbacées vivaces (seulement le genre Gillenia), des arbres ou des arbustes. Les feuilles sont composées chez les genres Gillenia, Cormus, Osteomeles et certains Sorbus. Cette super-tribu contient les hôtes des rouilles Phragmidium et Gymnosporangium. Les ovaires sont généralement connés (séparés ou uniques chez Kageneckia et certains membres des Pyrinae - Chamaemeles, Cotoneaster, Dichotomanthes, Heteromeles et Pyracantha). Les ovules sont basaux, pairs, collatéraux, avec des obturateurs funiculaires[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de la super-tribu sont des herbacées vivaces (seulement le genre Gillenia), des arbres ou des arbustes. Les feuilles sont composées chez les genres Gillenia, Cormus, Osteomeles et certains Sorbus. Cette super-tribu contient les hôtes des rouilles Phragmidium et Gymnosporangium. Les ovaires sont généralement connés (séparés ou uniques chez Kageneckia et certains membres des Pyrinae - Chamaemeles, Cotoneaster, Dichotomanthes, Heteromeles et Pyracantha). Les ovules sont basaux, pairs, collatéraux, avec des obturateurs funiculaires.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La super-tribu des Pyrodae a été décrite en 2007 comme le clade le plus inclusif contenant le genre Pyrus (genre type) mais pas les tribus des Amygdaleae, Osmaronieae, Kerrieae, Neillieae, Sorbarieae ou Spiraeeae ; ce clade regroupant le genre Gillenia (unique représentant de la tribu des Gillenieae) et la tribu des Pyreae[1]. Elle a été renommée Malodae[2] et la tribu des Pyreae a été renommée Maleae, noms formés sur le genre type Malus. En effet, une modification postérieure du CINB a donné la priorité aux noms infra-familiaux basés sur des noms de famille conservés (nomen conservandum), en l'occurrence Malaceae[3].
-Gillenia, avec un nombre de chromosomes de base de neuf, est le genre supposé existant de la lignée ancestrale qui aurait donné naissance à la tribu des Maleae par autopolyploïdisation[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La super-tribu des Pyrodae a été décrite en 2007 comme le clade le plus inclusif contenant le genre Pyrus (genre type) mais pas les tribus des Amygdaleae, Osmaronieae, Kerrieae, Neillieae, Sorbarieae ou Spiraeeae ; ce clade regroupant le genre Gillenia (unique représentant de la tribu des Gillenieae) et la tribu des Pyreae. Elle a été renommée Malodae et la tribu des Pyreae a été renommée Maleae, noms formés sur le genre type Malus. En effet, une modification postérieure du CINB a donné la priorité aux noms infra-familiaux basés sur des noms de famille conservés (nomen conservandum), en l'occurrence Malaceae.
+Gillenia, avec un nombre de chromosomes de base de neuf, est le genre supposé existant de la lignée ancestrale qui aurait donné naissance à la tribu des Maleae par autopolyploïdisation.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Hilary (2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Hilary (2023) :
 Gillenieae Maxim., 1879
 Maleae Small, 1933</t>
         </is>
